--- a/Power BI Releases.xlsx
+++ b/Power BI Releases.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/38fedbb726841d9a/MicrosoftHatesGregsQuickMeasures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3015" documentId="8_{1D692BAF-0CBF-40DB-B94F-841C1AE102B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E2B1083-84AD-4F15-BD5D-CADF0A6D296A}"/>
+  <xr:revisionPtr revIDLastSave="3822" documentId="8_{1D692BAF-0CBF-40DB-B94F-841C1AE102B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B6D926B-E3B6-43DD-AF6C-05ED79EBE13C}"/>
   <bookViews>
-    <workbookView xWindow="24850" yWindow="400" windowWidth="38620" windowHeight="21100" xr2:uid="{0E0B8394-3B57-4047-8649-5B257DE3A5C2}"/>
+    <workbookView minimized="1" xWindow="340" yWindow="1080" windowWidth="25140" windowHeight="15900" xr2:uid="{0E0B8394-3B57-4047-8649-5B257DE3A5C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1367</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6836" uniqueCount="1241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8171" uniqueCount="1488">
   <si>
     <t>Reporting</t>
   </si>
@@ -3762,6 +3763,747 @@
   </si>
   <si>
     <t>Localized parameter prompts in Power BI Report Builder   </t>
+  </si>
+  <si>
+    <t>Modern Tooltip now on by Default</t>
+  </si>
+  <si>
+    <t>Matrix Layouts</t>
+  </si>
+  <si>
+    <t>Line Updates</t>
+  </si>
+  <si>
+    <t>On-Object Interaction Updates</t>
+  </si>
+  <si>
+    <t>Publish to folders   </t>
+  </si>
+  <si>
+    <t>You can now ask Copilot questions about data in your model   </t>
+  </si>
+  <si>
+    <t>Announcing general availability of DAX query view </t>
+  </si>
+  <si>
+    <t>Copilot to write and explain DAX queries in DAX query view updates  </t>
+  </si>
+  <si>
+    <t>New Manage relationships dialog</t>
+  </si>
+  <si>
+    <t>Refreshing calculated columns and calculated tables referencing DirectQuery sources with single sign-on</t>
+  </si>
+  <si>
+    <t>Announcing general availability of model explorer and authoring calculation groups in Power BI Desktop</t>
+  </si>
+  <si>
+    <t>Microsoft Entra ID SSO support for Oracle database</t>
+  </si>
+  <si>
+    <t>Certified connector updates</t>
+  </si>
+  <si>
+    <t>View reports in OneDrive and SharePoint with live connected semantic models</t>
+  </si>
+  <si>
+    <t>Storytelling in PowerPoint – Image mode in the Power BI add-in for PowerPoint</t>
+  </si>
+  <si>
+    <t>Storytelling in PowerPoint – Data updated notification</t>
+  </si>
+  <si>
+    <t>Git Integration support for Direct Lake semantic models</t>
+  </si>
+  <si>
+    <t>Stacked Bar Chart with Line by JTA</t>
+  </si>
+  <si>
+    <t>Visual calculations update</t>
+  </si>
+  <si>
+    <t>Power BI Home in Desktop is now generally available!</t>
+  </si>
+  <si>
+    <t>Download large semantic models</t>
+  </si>
+  <si>
+    <t>New INFO functions</t>
+  </si>
+  <si>
+    <t>Power BI enhanced report format (PBIR)</t>
+  </si>
+  <si>
+    <t>Attribute Control Chart by Nova Silva</t>
+  </si>
+  <si>
+    <t>Download Button by JTA 18</t>
+  </si>
+  <si>
+    <t>New Updates for accoPLANNING (Release 69)</t>
+  </si>
+  <si>
+    <t>Subfolder support in Power BI Report Building</t>
+  </si>
+  <si>
+    <t>Power BI Report Server</t>
+  </si>
+  <si>
+    <t>Customize your reference layers in the Azure Maps visual </t>
+  </si>
+  <si>
+    <t>Announcing general availability of enhanced row-level security editor in Power BI Desktop </t>
+  </si>
+  <si>
+    <t>DAX query view is available in live connect </t>
+  </si>
+  <si>
+    <t>Add or update multiple measures in DAX query view</t>
+  </si>
+  <si>
+    <t>Storytelling in PowerPoint – New export to PowerPoint dialog</t>
+  </si>
+  <si>
+    <t>New update for field parameter feature for custom visuals</t>
+  </si>
+  <si>
+    <t>Power BI enhanced report format (PBIR) update</t>
+  </si>
+  <si>
+    <t>Linear Gauge by Powerviz</t>
+  </si>
+  <si>
+    <t>Advanced Geospatial Analytics Made Simple with Icon Map Pro for Power BI</t>
+  </si>
+  <si>
+    <t>Bind to Gateway API support for paginated reports </t>
+  </si>
+  <si>
+    <t>Parameters, Header/Footer and much more in the web authoring experience for paginated reports (Preview) </t>
+  </si>
+  <si>
+    <t>Power BI Report Server key in Fabric Capacities </t>
+  </si>
+  <si>
+    <t>Copilot and AI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ask Copilot questions against your semantic model (preview) </t>
+  </si>
+  <si>
+    <t>Visual level format strings (preview)</t>
+  </si>
+  <si>
+    <t>Dynamic per recipient subscriptions (Generally Available) </t>
+  </si>
+  <si>
+    <t>Deliver subscriptions to OneDrive and SharePoint (Generally Available)</t>
+  </si>
+  <si>
+    <t>Updated Save and Upload to OneDrive Flow in Power BI </t>
+  </si>
+  <si>
+    <t>Data limit</t>
+  </si>
+  <si>
+    <t>Visuals, shapes and line enhancements </t>
+  </si>
+  <si>
+    <t>DAX query view in the web </t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Narrative visual with Copilot available in SaaS embed </t>
+  </si>
+  <si>
+    <t>Embedded Analytics</t>
+  </si>
+  <si>
+    <t>Filter by Powerviz</t>
+  </si>
+  <si>
+    <t>Pie of Pie by JTA</t>
+  </si>
+  <si>
+    <t>Drill Down Pie PRO by ZoomCharts</t>
+  </si>
+  <si>
+    <t>Hierarchical Bar Chart</t>
+  </si>
+  <si>
+    <t>Deneb: Declarative Visualization in Power BI</t>
+  </si>
+  <si>
+    <t>Paginated Reports: Sharing of reports connecting to Get Data data sources made easy </t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>By Popular Demand: Dark mode is now available in Power BI Desktop!</t>
+  </si>
+  <si>
+    <t>Updated menu bar in Service view mode</t>
+  </si>
+  <si>
+    <t>Visual calculations update (preview)</t>
+  </si>
+  <si>
+    <t>Power BI in Teams – Now supporting Multi Factor Authentication</t>
+  </si>
+  <si>
+    <t>Multiple org apps per workspace, custom colors too! (preview)</t>
+  </si>
+  <si>
+    <t>Subscribe to reports on the last day of the month</t>
+  </si>
+  <si>
+    <t>Introducing Fabric Metrics Layer: A New Era of Metric Management in Fabric (preview)</t>
+  </si>
+  <si>
+    <t>Live edit of semantic models in Direct Lake mode with Power BI Desktop</t>
+  </si>
+  <si>
+    <t>Q&amp;A now supports semantic models with OLS</t>
+  </si>
+  <si>
+    <t>Data Connectivity</t>
+  </si>
+  <si>
+    <t>Connected tables in Excel are now available in Semi-Annual</t>
+  </si>
+  <si>
+    <t>NFC tag support in Power BI Mobile</t>
+  </si>
+  <si>
+    <t>KPI by Powerviz</t>
+  </si>
+  <si>
+    <t>BI Pixie by DataChant – Measure the Engagement of Your BI Audience</t>
+  </si>
+  <si>
+    <t>Decomposition Tree by JTA</t>
+  </si>
+  <si>
+    <t>Announcing GA of Get data experience in Power BI Report Builder</t>
+  </si>
+  <si>
+    <t>Enhanced Power BI Report Creation with Copilot (Public Preview) </t>
+  </si>
+  <si>
+    <t>Quick measure suggestions with Copilot to be replaced with Microsoft Fabric Copilot</t>
+  </si>
+  <si>
+    <t>Visual calculations update (preview) </t>
+  </si>
+  <si>
+    <t>Azure Map Update – Data Bound Reference Layers </t>
+  </si>
+  <si>
+    <t>Marker enhancements </t>
+  </si>
+  <si>
+    <t>New List Slicer (Preview) </t>
+  </si>
+  <si>
+    <t>Power BI in Teams – Announcing the retirement of the ‘Teams activity analytics’ report </t>
+  </si>
+  <si>
+    <t>Dynamic format strings for measures (generally available)</t>
+  </si>
+  <si>
+    <t>Introducing INFO.VIEW Data Analysis Expressions (DAX) functions</t>
+  </si>
+  <si>
+    <t>Value filter behavior (preview)</t>
+  </si>
+  <si>
+    <t>Snowflake connector updates</t>
+  </si>
+  <si>
+    <t>Power BI Mobile apps will no longer connect to Report Server using OAuth and AD FS 2016</t>
+  </si>
+  <si>
+    <t>New in AppSource</t>
+  </si>
+  <si>
+    <t>Cycle Plot by Nova Silva</t>
+  </si>
+  <si>
+    <t>Decomposition Tree – All Expanding</t>
+  </si>
+  <si>
+    <t>EDITable for reference/master data management with approval workflow, audit &amp; governance</t>
+  </si>
+  <si>
+    <t>ADWISE Advanced Column v1.0</t>
+  </si>
+  <si>
+    <t>Power BI enhanced report format (PBIR) update (preview)</t>
+  </si>
+  <si>
+    <t>Copilot in Power BI mobile apps (Preview)</t>
+  </si>
+  <si>
+    <t>Copilot summaries in subscriptions (Preview)</t>
+  </si>
+  <si>
+    <t>Path Layer for the Azure Map visual</t>
+  </si>
+  <si>
+    <t>Visual calculations (Preview)</t>
+  </si>
+  <si>
+    <t>Small multiples for the new card visual (Preview)</t>
+  </si>
+  <si>
+    <t>New visual – text slicer (Preview)</t>
+  </si>
+  <si>
+    <t>Define new measure in DAX query view quick queries</t>
+  </si>
+  <si>
+    <t>Metric sets: a new era of metric management in Fabric (Preview)</t>
+  </si>
+  <si>
+    <t>Announcing performance improvements for models with calculation groups and format strings in Excel</t>
+  </si>
+  <si>
+    <t>DLP policies restrict access action for semantic models (Preview)</t>
+  </si>
+  <si>
+    <t>Semantic modeling in Visual Studio Code with the new TMDL extension (Preview)</t>
+  </si>
+  <si>
+    <t>Developers + API</t>
+  </si>
+  <si>
+    <t>Fabric Git: TMDL format for semantic model export</t>
+  </si>
+  <si>
+    <t>Semantic model client library updates</t>
+  </si>
+  <si>
+    <t>Zebra BI Tables 7.3</t>
+  </si>
+  <si>
+    <t>Waterfall PRO by ZoomCharts: the most interactive waterfall visual for financial data</t>
+  </si>
+  <si>
+    <t>Lollipop bar chart by Nova Silva</t>
+  </si>
+  <si>
+    <t>Sales velocity chart</t>
+  </si>
+  <si>
+    <t>Donut Chart by JTA</t>
+  </si>
+  <si>
+    <t>Support for Power BI language settings when a paginated report is viewed on the Power BI service</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unlock suggested questions from standard prompts in Copilot </t>
+  </si>
+  <si>
+    <t>Enhancements to Treemap visual</t>
+  </si>
+  <si>
+    <t>Edit your data model in the Power BI service - updates (preview) [blog] [video] [article]</t>
+  </si>
+  <si>
+    <t>New Snowflake connector implementation (preview) </t>
+  </si>
+  <si>
+    <t>Many new and updated visuals</t>
+  </si>
+  <si>
+    <t>Now in Power BI Desktop - OneLake catalog</t>
+  </si>
+  <si>
+    <t>Explore from Copilot visual answers</t>
+  </si>
+  <si>
+    <t>Conditional formatting support for visual calculations (preview)</t>
+  </si>
+  <si>
+    <t>Live edit of semantic models in Direct Lake mode with Power BI Desktop - updates (preview)</t>
+  </si>
+  <si>
+    <t>Monitoring Hub enhancements for Semantic models</t>
+  </si>
+  <si>
+    <t>Enhancement to Text slicer (preview) </t>
+  </si>
+  <si>
+    <t>Upgrade Power BI Desktop to February 2025 version </t>
+  </si>
+  <si>
+    <t>The OneLake catalog is now available in Microsoft Teams </t>
+  </si>
+  <si>
+    <t>Storytelling in PowerPoint - new reset behavior (preview)  </t>
+  </si>
+  <si>
+    <t>Storytelling in PowerPoint - supporting page up and down (preview)  </t>
+  </si>
+  <si>
+    <t>Explore this data: new entry point from a visual   </t>
+  </si>
+  <si>
+    <t>Save to OneDrive and SharePoint: updated file picker (preview)   </t>
+  </si>
+  <si>
+    <t>Semantic model version history (preview)   </t>
+  </si>
+  <si>
+    <t>Edit your data model in the Power BI service - updates (preview)   </t>
+  </si>
+  <si>
+    <t>Live edit of semantic models in Direct Lake mode with Power BI Desktop - updates (preview)  </t>
+  </si>
+  <si>
+    <t>TMDL scripting experience (preview)   </t>
+  </si>
+  <si>
+    <t>Upgrade Power BI Desktop to 64-bit version  </t>
+  </si>
+  <si>
+    <t>Copilot in the Power BI mobile apps: now available on iPads and Android tablets (preview)   </t>
+  </si>
+  <si>
+    <t>Updated section - How Copilot arrived at this   </t>
+  </si>
+  <si>
+    <t>Improvements in the Snowflake connector</t>
+  </si>
+  <si>
+    <t>Power BI Desktop start-up performance improvements [blog] [article]</t>
+  </si>
+  <si>
+    <t>Upgrade Power BI Desktop</t>
+  </si>
+  <si>
+    <t>Get a Copilot summary directly from your Teams message with a single click [blog] [video]</t>
+  </si>
+  <si>
+    <t>Copilot in Power BI to write DAX queries in DAX query view updates [blog] [video]</t>
+  </si>
+  <si>
+    <t>Improved language understanding for data questions [blog] [video] [article]</t>
+  </si>
+  <si>
+    <t>Ad hoc calculation support for data questions</t>
+  </si>
+  <si>
+    <t>Better storytelling with Data annotations in Power BI for PowerPoint (preview) [blog] [video] [article]</t>
+  </si>
+  <si>
+    <t>Copy report object name [blog] [video]</t>
+  </si>
+  <si>
+    <t>Referenced column highlights for visual calculations (preview) [blog] [video] [article]</t>
+  </si>
+  <si>
+    <t>Enhancements to Reference Lines [blog] [video]</t>
+  </si>
+  <si>
+    <t>Category enhancements for new card (preview) [blog] [video]</t>
+  </si>
+  <si>
+    <t>Introducing style presets to visuals [blog] [video] [article]</t>
+  </si>
+  <si>
+    <t>Insights category for business users in the OneLake catalog</t>
+  </si>
+  <si>
+    <t>Create semantic models in Direct Lake storage mode from one or more Fabric artifacts in Power BI Desktop [blog] [video] [article]</t>
+  </si>
+  <si>
+    <t>TMDL view support for Direct Lake semantic models (preview) [blog] [video] [article]</t>
+  </si>
+  <si>
+    <t>Updates to semantic model version history (preview) [blog] [video] [article]</t>
+  </si>
+  <si>
+    <t>Live edit of semantic models in Direct Lake mode with Power BI Desktop - updates (preview) [blog] [video] [article]</t>
+  </si>
+  <si>
+    <t>Use notebooks with your semantic model (preview) [blog] [video] [article]</t>
+  </si>
+  <si>
+    <t>Access the Azure Analysis Services migration tool from your workspace [blog]</t>
+  </si>
+  <si>
+    <t>Table view improvements [blog]</t>
+  </si>
+  <si>
+    <t>Distribution, discovery, and consumption [blog]</t>
+  </si>
+  <si>
+    <t>CI/CD for org apps (preview) [blog] [video] [article]</t>
+  </si>
+  <si>
+    <t>Introducing new customization options for org apps - combined navigation (preview)</t>
+  </si>
+  <si>
+    <t>Backward compatibility is impacted by Q&amp;A setup updates </t>
+  </si>
+  <si>
+    <t>Ad hoc calculation support for data questions now available in read mode</t>
+  </si>
+  <si>
+    <t>File picker enabled by default in Power BI Desktop [blog] [video]</t>
+  </si>
+  <si>
+    <t>Mobile layout auto-create now generally available</t>
+  </si>
+  <si>
+    <t>Semantic model changes with TMDL view (preview) [blog] [video]</t>
+  </si>
+  <si>
+    <t>Azure Maps auto-zoom now includes reference layers</t>
+  </si>
+  <si>
+    <t>Connect to the Vertica database with the user-installed ODBC driver - updates (preview) [blog] [video]</t>
+  </si>
+  <si>
+    <t>Use the built-in driver to connect to Oracle (preview) [blog] [video] [article]</t>
+  </si>
+  <si>
+    <t>Snowflake connector update</t>
+  </si>
+  <si>
+    <t>Many new and updated visuals </t>
+  </si>
+  <si>
+    <t>Power BI Desktop 32-bit deprecation</t>
+  </si>
+  <si>
+    <t>Mark a semantic model as prepared for AI</t>
+  </si>
+  <si>
+    <t>Standalone Copilot in Power BI: Ask anything! (preview)</t>
+  </si>
+  <si>
+    <t>Quality improvements to language understanding for data questions</t>
+  </si>
+  <si>
+    <t>Get your data AI ready (Preview)</t>
+  </si>
+  <si>
+    <t>AI data schema</t>
+  </si>
+  <si>
+    <t>Verified answers</t>
+  </si>
+  <si>
+    <t>AI instructions</t>
+  </si>
+  <si>
+    <t>Testing with the skill picker</t>
+  </si>
+  <si>
+    <t>Preparing a semantic model for AI</t>
+  </si>
+  <si>
+    <t>Automate report actions and data writeback with translytical task flows (preview).</t>
+  </si>
+  <si>
+    <t>Persisted sorting for field parameters (preview)</t>
+  </si>
+  <si>
+    <t>Easily refer to values in your visual with visual calculations (preview)</t>
+  </si>
+  <si>
+    <t>Updates to the new list slicer (preview)</t>
+  </si>
+  <si>
+    <t>Paste into list and button slicers (preview)</t>
+  </si>
+  <si>
+    <t>Customize line segment colors in line charts</t>
+  </si>
+  <si>
+    <t>Additional base map customization options for Azure Maps visual</t>
+  </si>
+  <si>
+    <t>Upcoming Azure Maps tenant settings and layer ordering updates</t>
+  </si>
+  <si>
+    <t>Upcoming changes to the Power BI app in Teams navigation menu</t>
+  </si>
+  <si>
+    <t>Visual updates for semantic models with discourage implicit measures enabled</t>
+  </si>
+  <si>
+    <t>Direct lake and import tables in the same semantic model</t>
+  </si>
+  <si>
+    <t>Selection expressions for calculation groups</t>
+  </si>
+  <si>
+    <t>TMDL view enhancements</t>
+  </si>
+  <si>
+    <t>Direct lake relationship improvements</t>
+  </si>
+  <si>
+    <t>New Google BigQuery connector implementation (preview)</t>
+  </si>
+  <si>
+    <t>Connect to the Vertica database with the user-installed ODBC driver - updates (preview)</t>
+  </si>
+  <si>
+    <t>Connect to the Oracle database with the built-in driver - updates (preview)</t>
+  </si>
+  <si>
+    <t>Improvements in the Snowflake connector (preview)</t>
+  </si>
+  <si>
+    <t>Dandelion chart</t>
+  </si>
+  <si>
+    <t>Action dots are here an innovative way to visualize variances in Zebra BI tables</t>
+  </si>
+  <si>
+    <t>Profitbase Gantt revamped</t>
+  </si>
+  <si>
+    <t>Decomposition Tree - all expanding</t>
+  </si>
+  <si>
+    <t>Network Graph by Powerviz</t>
+  </si>
+  <si>
+    <t>Power BI Project (PBIP) public JSON schemas</t>
+  </si>
+  <si>
+    <t>Org apps are now available in Power BI mobile! (preview)</t>
+  </si>
+  <si>
+    <t>Connect to PostgreSQL database without manual driver installation</t>
+  </si>
+  <si>
+    <t>Expanded support for write operations via external tools</t>
+  </si>
+  <si>
+    <t>Use Copilot on reports in org apps (preview)</t>
+  </si>
+  <si>
+    <t>Secure collaboration on sensitive data in Power BI Desktop</t>
+  </si>
+  <si>
+    <t>Updates to visual calculations (preview)</t>
+  </si>
+  <si>
+    <t>Sparklines (generally available)</t>
+  </si>
+  <si>
+    <t>Updates to numeric range and field parameters (preview)</t>
+  </si>
+  <si>
+    <t>New tenant settings for Azure Maps visual (action required)</t>
+  </si>
+  <si>
+    <t>Support for mapping South Korean locations</t>
+  </si>
+  <si>
+    <t>Support for adding paginated reports to org apps (preview)</t>
+  </si>
+  <si>
+    <t>Power Query editing in the web for import models (preview)</t>
+  </si>
+  <si>
+    <t>Connect to Vertica database with the user-installed Open Database Connectivity (ODBC) driver (generally available)</t>
+  </si>
+  <si>
+    <t>QuickBooks Online (beta) connector under deprecation</t>
+  </si>
+  <si>
+    <t>Expanded data sharing with M365</t>
+  </si>
+  <si>
+    <t>PBIRS Will Consolidate On-Premises Reporting Services from SQL Server 2025</t>
+  </si>
+  <si>
+    <t>Improvements to standalone Copilot answers</t>
+  </si>
+  <si>
+    <t>Limit Copilot search to prepped content</t>
+  </si>
+  <si>
+    <t>Verified answers from Copilot search</t>
+  </si>
+  <si>
+    <t>AI Data Schema – updates (Preview)</t>
+  </si>
+  <si>
+    <t>Customized instructions for summaries through subscriptions</t>
+  </si>
+  <si>
+    <t>Narrative visual available in subscription snapshot and export</t>
+  </si>
+  <si>
+    <t>Textual responses for Data inquiries</t>
+  </si>
+  <si>
+    <t>New Power BI App Navigation Menu in Teams</t>
+  </si>
+  <si>
+    <t>Influencing sort for visual calculations (Preview)</t>
+  </si>
+  <si>
+    <t>Field parameters (Generally Available)</t>
+  </si>
+  <si>
+    <t>Organizational themes (Preview)</t>
+  </si>
+  <si>
+    <t>Improvements to Pie and Donut Charts</t>
+  </si>
+  <si>
+    <t>Direct Lake in Desktop from Mirrored and SQL databases</t>
+  </si>
+  <si>
+    <t>DAX query view and web modeling view switcher</t>
+  </si>
+  <si>
+    <t>Support for PQO Gateway Connections for Paginated Reports</t>
+  </si>
+  <si>
+    <t>Snowflake connector implementation 2.0 (Generally Available)</t>
+  </si>
+  <si>
+    <t>New Google BigQuery (Microsoft Entra ID) connector implementation (Preview)</t>
+  </si>
+  <si>
+    <t>New Databricks connector implementation (Preview)</t>
+  </si>
+  <si>
+    <t>Connect to Netezza database with the user-installed ODBC driver (Preview)</t>
+  </si>
+  <si>
+    <t>PostgreSQL connector adds support for Microsoft Entra ID authentication</t>
+  </si>
+  <si>
+    <t>Stacked Bar Chart with Line by JTA – a Data Scientist’s Visualization Tool</t>
+  </si>
+  <si>
+    <t>Inforiver Premium Table – High-Performance, Formatted, and Scalable Table Visual for Power BI</t>
+  </si>
+  <si>
+    <t>Inforiver Analytics+ 4.7 is here with 100+ Charts, Gantt, KPI Cards, and Tables</t>
+  </si>
+  <si>
+    <t>Home in the Power BI mobile app has been reorganized</t>
+  </si>
+  <si>
+    <t>Power BI Enhanced Report Format (PBIR) Update</t>
   </si>
 </sst>
 </file>
@@ -4135,16 +4877,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AAEBBDD-7330-48E0-8A2B-BBEFD3B9C56A}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F1367"/>
+  <dimension ref="A1:F1634"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <pane ySplit="1297" topLeftCell="A1604" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1622" sqref="F1622:F1634"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="117.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.08984375" bestFit="1" customWidth="1"/>
@@ -4170,7 +4913,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>43497</v>
       </c>
@@ -4190,7 +4933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43497</v>
       </c>
@@ -4210,7 +4953,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43497</v>
       </c>
@@ -4230,7 +4973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43497</v>
       </c>
@@ -4250,7 +4993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43497</v>
       </c>
@@ -4270,7 +5013,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43497</v>
       </c>
@@ -4290,7 +5033,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>43497</v>
       </c>
@@ -4310,7 +5053,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>43497</v>
       </c>
@@ -4330,7 +5073,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>43497</v>
       </c>
@@ -4350,7 +5093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>43497</v>
       </c>
@@ -4370,7 +5113,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>43497</v>
       </c>
@@ -4390,7 +5133,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>43497</v>
       </c>
@@ -4410,7 +5153,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>43497</v>
       </c>
@@ -4430,7 +5173,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>43497</v>
       </c>
@@ -4450,7 +5193,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>43497</v>
       </c>
@@ -4470,7 +5213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>43497</v>
       </c>
@@ -4490,7 +5233,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>43497</v>
       </c>
@@ -4510,7 +5253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>43497</v>
       </c>
@@ -4530,7 +5273,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>43497</v>
       </c>
@@ -4550,7 +5293,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>43497</v>
       </c>
@@ -4570,7 +5313,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>43497</v>
       </c>
@@ -4590,7 +5333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>43497</v>
       </c>
@@ -4610,7 +5353,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>43497</v>
       </c>
@@ -4630,7 +5373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>43497</v>
       </c>
@@ -4650,7 +5393,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>43497</v>
       </c>
@@ -4670,7 +5413,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>43497</v>
       </c>
@@ -4690,7 +5433,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>43497</v>
       </c>
@@ -4710,7 +5453,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>43497</v>
       </c>
@@ -4730,7 +5473,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>43497</v>
       </c>
@@ -4750,7 +5493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>43497</v>
       </c>
@@ -4770,7 +5513,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>43497</v>
       </c>
@@ -4790,7 +5533,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>43497</v>
       </c>
@@ -4810,7 +5553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>43497</v>
       </c>
@@ -4830,7 +5573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>43497</v>
       </c>
@@ -4850,7 +5593,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>43497</v>
       </c>
@@ -4870,7 +5613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>43497</v>
       </c>
@@ -4890,7 +5633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>43525</v>
       </c>
@@ -4910,7 +5653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>43525</v>
       </c>
@@ -4930,7 +5673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>43525</v>
       </c>
@@ -4950,7 +5693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>43525</v>
       </c>
@@ -4970,7 +5713,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>43525</v>
       </c>
@@ -4990,7 +5733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>43525</v>
       </c>
@@ -5010,7 +5753,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>43525</v>
       </c>
@@ -5030,7 +5773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>43525</v>
       </c>
@@ -5050,7 +5793,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>43525</v>
       </c>
@@ -5070,7 +5813,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>43525</v>
       </c>
@@ -5090,7 +5833,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>43525</v>
       </c>
@@ -5110,7 +5853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>43525</v>
       </c>
@@ -5130,7 +5873,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>43525</v>
       </c>
@@ -5150,7 +5893,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>43525</v>
       </c>
@@ -5170,7 +5913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>43525</v>
       </c>
@@ -5190,7 +5933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>43525</v>
       </c>
@@ -5210,7 +5953,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>43525</v>
       </c>
@@ -5230,7 +5973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>43525</v>
       </c>
@@ -5250,7 +5993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>43525</v>
       </c>
@@ -5270,7 +6013,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>43525</v>
       </c>
@@ -5290,7 +6033,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>43525</v>
       </c>
@@ -5310,7 +6053,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>43525</v>
       </c>
@@ -5330,7 +6073,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>43525</v>
       </c>
@@ -5350,7 +6093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>43556</v>
       </c>
@@ -5370,7 +6113,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>43556</v>
       </c>
@@ -5390,7 +6133,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>43556</v>
       </c>
@@ -5410,7 +6153,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>43556</v>
       </c>
@@ -5430,7 +6173,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>43556</v>
       </c>
@@ -5450,7 +6193,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>43556</v>
       </c>
@@ -5470,7 +6213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>43556</v>
       </c>
@@ -5490,7 +6233,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>43556</v>
       </c>
@@ -5510,7 +6253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>43556</v>
       </c>
@@ -5530,7 +6273,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>43556</v>
       </c>
@@ -5550,7 +6293,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>43556</v>
       </c>
@@ -5570,7 +6313,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>43556</v>
       </c>
@@ -5590,7 +6333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>43556</v>
       </c>
@@ -5610,7 +6353,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>43556</v>
       </c>
@@ -5630,7 +6373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>43556</v>
       </c>
@@ -5650,7 +6393,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>43556</v>
       </c>
@@ -5670,7 +6413,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>43556</v>
       </c>
@@ -5690,7 +6433,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>43556</v>
       </c>
@@ -5710,7 +6453,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>43556</v>
       </c>
@@ -5730,7 +6473,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>43556</v>
       </c>
@@ -5750,7 +6493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>43556</v>
       </c>
@@ -5770,7 +6513,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>43556</v>
       </c>
@@ -5790,7 +6533,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>43556</v>
       </c>
@@ -5810,7 +6553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>43556</v>
       </c>
@@ -5830,7 +6573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>43556</v>
       </c>
@@ -5850,7 +6593,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>43556</v>
       </c>
@@ -5870,7 +6613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>43556</v>
       </c>
@@ -5890,7 +6633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>43556</v>
       </c>
@@ -5910,7 +6653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>43556</v>
       </c>
@@ -5930,7 +6673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>43556</v>
       </c>
@@ -5950,7 +6693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>43556</v>
       </c>
@@ -5970,7 +6713,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>43556</v>
       </c>
@@ -5990,7 +6733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>43586</v>
       </c>
@@ -6010,7 +6753,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>43586</v>
       </c>
@@ -6030,7 +6773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>43586</v>
       </c>
@@ -6050,7 +6793,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>43586</v>
       </c>
@@ -6070,7 +6813,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>43586</v>
       </c>
@@ -6090,7 +6833,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>43586</v>
       </c>
@@ -6110,7 +6853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>43586</v>
       </c>
@@ -6130,7 +6873,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>43586</v>
       </c>
@@ -6150,7 +6893,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>43586</v>
       </c>
@@ -6170,7 +6913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>43586</v>
       </c>
@@ -6190,7 +6933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>43586</v>
       </c>
@@ -6210,7 +6953,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>43586</v>
       </c>
@@ -6230,7 +6973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>43586</v>
       </c>
@@ -6250,7 +6993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>43586</v>
       </c>
@@ -6270,7 +7013,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>43586</v>
       </c>
@@ -6290,7 +7033,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>43586</v>
       </c>
@@ -6310,7 +7053,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>43586</v>
       </c>
@@ -6330,7 +7073,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>43586</v>
       </c>
@@ -6350,7 +7093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>43586</v>
       </c>
@@ -6370,7 +7113,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>43586</v>
       </c>
@@ -6390,7 +7133,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>43586</v>
       </c>
@@ -6410,7 +7153,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>43586</v>
       </c>
@@ -6430,7 +7173,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>43586</v>
       </c>
@@ -6450,7 +7193,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>43617</v>
       </c>
@@ -6470,7 +7213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>43617</v>
       </c>
@@ -6490,7 +7233,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>43617</v>
       </c>
@@ -6510,7 +7253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>43617</v>
       </c>
@@ -6530,7 +7273,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>43617</v>
       </c>
@@ -6550,7 +7293,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>43617</v>
       </c>
@@ -6570,7 +7313,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>43617</v>
       </c>
@@ -6590,7 +7333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>43617</v>
       </c>
@@ -6610,7 +7353,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>43617</v>
       </c>
@@ -6630,7 +7373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>43617</v>
       </c>
@@ -6650,7 +7393,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>43617</v>
       </c>
@@ -6670,7 +7413,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>43617</v>
       </c>
@@ -6690,7 +7433,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>43617</v>
       </c>
@@ -6710,7 +7453,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>43617</v>
       </c>
@@ -6730,7 +7473,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>43617</v>
       </c>
@@ -6750,7 +7493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>43617</v>
       </c>
@@ -6770,7 +7513,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>43617</v>
       </c>
@@ -6790,7 +7533,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>43617</v>
       </c>
@@ -6810,7 +7553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>43617</v>
       </c>
@@ -6830,7 +7573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>43617</v>
       </c>
@@ -6850,7 +7593,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>43617</v>
       </c>
@@ -6870,7 +7613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>43617</v>
       </c>
@@ -6890,7 +7633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>43617</v>
       </c>
@@ -6910,7 +7653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>43617</v>
       </c>
@@ -6930,7 +7673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>43617</v>
       </c>
@@ -6950,7 +7693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>43617</v>
       </c>
@@ -6970,7 +7713,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>43617</v>
       </c>
@@ -6990,7 +7733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>43647</v>
       </c>
@@ -7010,7 +7753,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>43647</v>
       </c>
@@ -7030,7 +7773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>43647</v>
       </c>
@@ -7050,7 +7793,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>43647</v>
       </c>
@@ -7070,7 +7813,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>43647</v>
       </c>
@@ -7090,7 +7833,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>43647</v>
       </c>
@@ -7110,7 +7853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>43647</v>
       </c>
@@ -7130,7 +7873,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>43647</v>
       </c>
@@ -7150,7 +7893,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>43647</v>
       </c>
@@ -7170,7 +7913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>43647</v>
       </c>
@@ -7190,7 +7933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>43647</v>
       </c>
@@ -7210,7 +7953,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>43647</v>
       </c>
@@ -7230,7 +7973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>43647</v>
       </c>
@@ -7250,7 +7993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>43647</v>
       </c>
@@ -7270,7 +8013,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>43647</v>
       </c>
@@ -7290,7 +8033,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>43647</v>
       </c>
@@ -7310,7 +8053,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>43647</v>
       </c>
@@ -7330,7 +8073,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>43647</v>
       </c>
@@ -7350,7 +8093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>43647</v>
       </c>
@@ -7370,7 +8113,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>43647</v>
       </c>
@@ -7390,7 +8133,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>43647</v>
       </c>
@@ -7410,7 +8153,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>43678</v>
       </c>
@@ -7430,7 +8173,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>43678</v>
       </c>
@@ -7450,7 +8193,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>43678</v>
       </c>
@@ -7470,7 +8213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>43678</v>
       </c>
@@ -7490,7 +8233,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>43678</v>
       </c>
@@ -7510,7 +8253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>43678</v>
       </c>
@@ -7530,7 +8273,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>43678</v>
       </c>
@@ -7550,7 +8293,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>43678</v>
       </c>
@@ -7570,7 +8313,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>43678</v>
       </c>
@@ -7590,7 +8333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>43678</v>
       </c>
@@ -7610,7 +8353,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>43678</v>
       </c>
@@ -7630,7 +8373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>43678</v>
       </c>
@@ -7650,7 +8393,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>43678</v>
       </c>
@@ -7670,7 +8413,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>43678</v>
       </c>
@@ -7690,7 +8433,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>43678</v>
       </c>
@@ -7710,7 +8453,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>43678</v>
       </c>
@@ -7730,7 +8473,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>43678</v>
       </c>
@@ -7750,7 +8493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>43678</v>
       </c>
@@ -7770,7 +8513,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>43678</v>
       </c>
@@ -7790,7 +8533,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>43678</v>
       </c>
@@ -7810,7 +8553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>43709</v>
       </c>
@@ -7830,7 +8573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>43709</v>
       </c>
@@ -7850,7 +8593,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>43709</v>
       </c>
@@ -7870,7 +8613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>43709</v>
       </c>
@@ -7890,7 +8633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>43709</v>
       </c>
@@ -7910,7 +8653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>43709</v>
       </c>
@@ -7930,7 +8673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>43709</v>
       </c>
@@ -7950,7 +8693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>43709</v>
       </c>
@@ -7970,7 +8713,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>43709</v>
       </c>
@@ -7990,7 +8733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>43709</v>
       </c>
@@ -8010,7 +8753,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>43709</v>
       </c>
@@ -8030,7 +8773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>43709</v>
       </c>
@@ -8050,7 +8793,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>43709</v>
       </c>
@@ -8070,7 +8813,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>43709</v>
       </c>
@@ -8090,7 +8833,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>43739</v>
       </c>
@@ -8110,7 +8853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>43739</v>
       </c>
@@ -8130,7 +8873,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>43739</v>
       </c>
@@ -8150,7 +8893,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>43739</v>
       </c>
@@ -8170,7 +8913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>43739</v>
       </c>
@@ -8190,7 +8933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>43739</v>
       </c>
@@ -8210,7 +8953,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>43739</v>
       </c>
@@ -8230,7 +8973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>43739</v>
       </c>
@@ -8250,7 +8993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>43739</v>
       </c>
@@ -8270,7 +9013,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>43739</v>
       </c>
@@ -8290,7 +9033,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>43739</v>
       </c>
@@ -8310,7 +9053,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>43739</v>
       </c>
@@ -8330,7 +9073,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>43739</v>
       </c>
@@ -8350,7 +9093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>43739</v>
       </c>
@@ -8370,7 +9113,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>43739</v>
       </c>
@@ -8390,7 +9133,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>43739</v>
       </c>
@@ -8410,7 +9153,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>43739</v>
       </c>
@@ -8430,7 +9173,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>43739</v>
       </c>
@@ -8450,7 +9193,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>43739</v>
       </c>
@@ -8470,7 +9213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>43739</v>
       </c>
@@ -8490,7 +9233,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <v>43739</v>
       </c>
@@ -8510,7 +9253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>43739</v>
       </c>
@@ -8530,7 +9273,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
         <v>43770</v>
       </c>
@@ -8550,7 +9293,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
         <v>43770</v>
       </c>
@@ -8570,7 +9313,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
         <v>43770</v>
       </c>
@@ -8590,7 +9333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
         <v>43770</v>
       </c>
@@ -8610,7 +9353,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
         <v>43770</v>
       </c>
@@ -8630,7 +9373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
         <v>43770</v>
       </c>
@@ -8650,7 +9393,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
         <v>43770</v>
       </c>
@@ -8670,7 +9413,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
         <v>43770</v>
       </c>
@@ -8690,7 +9433,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
         <v>43770</v>
       </c>
@@ -8710,7 +9453,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
         <v>43770</v>
       </c>
@@ -8730,7 +9473,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
         <v>43770</v>
       </c>
@@ -8750,7 +9493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
         <v>43770</v>
       </c>
@@ -8770,7 +9513,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
         <v>43770</v>
       </c>
@@ -8790,7 +9533,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
         <v>43770</v>
       </c>
@@ -8810,7 +9553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
         <v>43770</v>
       </c>
@@ -8830,7 +9573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
         <v>43770</v>
       </c>
@@ -8850,7 +9593,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
         <v>43770</v>
       </c>
@@ -8870,7 +9613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
         <v>43800</v>
       </c>
@@ -8890,7 +9633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238" s="1">
         <v>43800</v>
       </c>
@@ -8910,7 +9653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239" s="1">
         <v>43800</v>
       </c>
@@ -8930,7 +9673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240" s="1">
         <v>43800</v>
       </c>
@@ -8950,7 +9693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A241" s="1">
         <v>43800</v>
       </c>
@@ -8970,7 +9713,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242" s="1">
         <v>43800</v>
       </c>
@@ -8990,7 +9733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A243" s="1">
         <v>43800</v>
       </c>
@@ -9010,7 +9753,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244" s="1">
         <v>43800</v>
       </c>
@@ -9030,7 +9773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245" s="1">
         <v>43800</v>
       </c>
@@ -9050,7 +9793,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246" s="1">
         <v>43800</v>
       </c>
@@ -9070,7 +9813,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247" s="1">
         <v>43800</v>
       </c>
@@ -9090,7 +9833,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248" s="1">
         <v>43800</v>
       </c>
@@ -9110,7 +9853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249" s="1">
         <v>43800</v>
       </c>
@@ -9130,7 +9873,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A250" s="1">
         <v>43800</v>
       </c>
@@ -9150,7 +9893,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A251" s="1">
         <v>43800</v>
       </c>
@@ -9170,7 +9913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252" s="1">
         <v>43800</v>
       </c>
@@ -9190,7 +9933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A253" s="1">
         <v>43800</v>
       </c>
@@ -9210,7 +9953,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A254" s="1">
         <v>43800</v>
       </c>
@@ -9230,7 +9973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A255" s="1">
         <v>43800</v>
       </c>
@@ -9250,7 +9993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A256" s="1">
         <v>43800</v>
       </c>
@@ -9270,7 +10013,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A257" s="1">
         <v>43800</v>
       </c>
@@ -9290,7 +10033,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A258" s="1">
         <v>43800</v>
       </c>
@@ -30090,7 +30833,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1298" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1298" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1298" s="1">
         <v>45323</v>
       </c>
@@ -30110,7 +30853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1299" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1299" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1299" s="1">
         <v>45323</v>
       </c>
@@ -30130,7 +30873,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1300" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1300" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1300" s="1">
         <v>45323</v>
       </c>
@@ -30150,7 +30893,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1301" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1301" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1301" s="1">
         <v>45323</v>
       </c>
@@ -30170,7 +30913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1302" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1302" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1302" s="1">
         <v>45323</v>
       </c>
@@ -30190,7 +30933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1303" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1303" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1303" s="1">
         <v>45323</v>
       </c>
@@ -30210,7 +30953,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1304" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1304" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1304" s="1">
         <v>45323</v>
       </c>
@@ -30230,7 +30973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1305" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1305" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1305" s="1">
         <v>45323</v>
       </c>
@@ -30250,7 +30993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1306" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1306" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1306" s="1">
         <v>45323</v>
       </c>
@@ -30270,7 +31013,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1307" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1307" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1307" s="1">
         <v>45323</v>
       </c>
@@ -30290,7 +31033,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1308" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1308" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1308" s="1">
         <v>45323</v>
       </c>
@@ -30310,7 +31053,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1309" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1309" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1309" s="1">
         <v>45323</v>
       </c>
@@ -30330,7 +31073,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1310" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1310" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1310" s="1">
         <v>45323</v>
       </c>
@@ -30350,7 +31093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1311" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1311" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1311" s="1">
         <v>45323</v>
       </c>
@@ -30370,7 +31113,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1312" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1312" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1312" s="1">
         <v>45323</v>
       </c>
@@ -30390,7 +31133,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1313" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1313" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1313" s="1">
         <v>45323</v>
       </c>
@@ -30410,7 +31153,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1314" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1314" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1314" s="1">
         <v>45323</v>
       </c>
@@ -30430,7 +31173,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1315" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1315" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1315" s="1">
         <v>45323</v>
       </c>
@@ -30450,7 +31193,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1316" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1316" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1316" s="1">
         <v>45323</v>
       </c>
@@ -30470,7 +31213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1317" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1317" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1317" s="1">
         <v>45323</v>
       </c>
@@ -30490,7 +31233,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1318" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1318" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1318" s="1">
         <v>45323</v>
       </c>
@@ -30510,7 +31253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1319" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1319" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1319" s="1">
         <v>45352</v>
       </c>
@@ -30530,7 +31273,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1320" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1320" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1320" s="1">
         <v>45352</v>
       </c>
@@ -30550,7 +31293,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1321" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1321" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1321" s="1">
         <v>45352</v>
       </c>
@@ -30570,7 +31313,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1322" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1322" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1322" s="1">
         <v>45352</v>
       </c>
@@ -30590,7 +31333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1323" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1323" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1323" s="1">
         <v>45352</v>
       </c>
@@ -30610,7 +31353,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1324" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1324" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1324" s="1">
         <v>45352</v>
       </c>
@@ -30630,7 +31373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1325" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1325" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1325" s="1">
         <v>45352</v>
       </c>
@@ -30650,7 +31393,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1326" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1326" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1326" s="1">
         <v>45352</v>
       </c>
@@ -30670,7 +31413,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1327" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1327" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1327" s="1">
         <v>45352</v>
       </c>
@@ -30690,7 +31433,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1328" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1328" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1328" s="1">
         <v>45352</v>
       </c>
@@ -30710,7 +31453,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1329" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1329" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1329" s="1">
         <v>45352</v>
       </c>
@@ -30730,7 +31473,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1330" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1330" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1330" s="1">
         <v>45352</v>
       </c>
@@ -30750,7 +31493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1331" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1331" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1331" s="1">
         <v>45352</v>
       </c>
@@ -30770,7 +31513,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1332" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1332" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1332" s="1">
         <v>45352</v>
       </c>
@@ -30790,7 +31533,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1333" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1333" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1333" s="1">
         <v>45352</v>
       </c>
@@ -30810,7 +31553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1334" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1334" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1334" s="1">
         <v>45352</v>
       </c>
@@ -30830,7 +31573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1335" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1335" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1335" s="1">
         <v>45352</v>
       </c>
@@ -30850,7 +31593,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1336" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1336" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1336" s="1">
         <v>45352</v>
       </c>
@@ -30870,7 +31613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1337" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1337" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1337" s="1">
         <v>45352</v>
       </c>
@@ -30890,7 +31633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1338" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1338" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1338" s="1">
         <v>45352</v>
       </c>
@@ -30910,7 +31653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1339" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1339" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1339" s="1">
         <v>45352</v>
       </c>
@@ -30930,7 +31673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1340" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1340" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1340" s="1">
         <v>45352</v>
       </c>
@@ -30950,7 +31693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1341" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1341" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1341" s="1">
         <v>45352</v>
       </c>
@@ -30970,7 +31713,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1342" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1342" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1342" s="1">
         <v>45352</v>
       </c>
@@ -30990,7 +31733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1343" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1343" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1343" s="1">
         <v>45352</v>
       </c>
@@ -31010,7 +31753,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1344" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1344" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1344" s="1">
         <v>45352</v>
       </c>
@@ -31030,7 +31773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1345" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1345" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1345" s="1">
         <v>45383</v>
       </c>
@@ -31050,7 +31793,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1346" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1346" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1346" s="1">
         <v>45383</v>
       </c>
@@ -31070,7 +31813,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1347" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1347" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1347" s="1">
         <v>45383</v>
       </c>
@@ -31090,7 +31833,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1348" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1348" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1348" s="1">
         <v>45383</v>
       </c>
@@ -31110,7 +31853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1349" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1349" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1349" s="1">
         <v>45383</v>
       </c>
@@ -31130,7 +31873,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1350" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1350" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1350" s="1">
         <v>45383</v>
       </c>
@@ -31150,7 +31893,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1351" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1351" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1351" s="1">
         <v>45383</v>
       </c>
@@ -31170,7 +31913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1352" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1352" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1352" s="1">
         <v>45383</v>
       </c>
@@ -31190,7 +31933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1353" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1353" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1353" s="1">
         <v>45383</v>
       </c>
@@ -31210,7 +31953,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1354" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1354" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1354" s="1">
         <v>45383</v>
       </c>
@@ -31230,7 +31973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1355" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1355" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1355" s="1">
         <v>45383</v>
       </c>
@@ -31250,7 +31993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1356" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1356" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1356" s="1">
         <v>45383</v>
       </c>
@@ -31270,7 +32013,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1357" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1357" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1357" s="1">
         <v>45383</v>
       </c>
@@ -31290,7 +32033,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1358" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1358" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1358" s="1">
         <v>45383</v>
       </c>
@@ -31310,7 +32053,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1359" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1359" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1359" s="1">
         <v>45383</v>
       </c>
@@ -31330,7 +32073,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1360" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1360" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1360" s="1">
         <v>45383</v>
       </c>
@@ -31350,7 +32093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1361" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1361" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1361" s="1">
         <v>45383</v>
       </c>
@@ -31370,7 +32113,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1362" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1362" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1362" s="1">
         <v>45383</v>
       </c>
@@ -31390,7 +32133,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1363" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1363" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1363" s="1">
         <v>45383</v>
       </c>
@@ -31410,7 +32153,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1364" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1364" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1364" s="1">
         <v>45383</v>
       </c>
@@ -31430,7 +32173,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1365" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1365" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1365" s="1">
         <v>45383</v>
       </c>
@@ -31450,7 +32193,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1366" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1366" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1366" s="1">
         <v>45383</v>
       </c>
@@ -31470,7 +32213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1367" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1367" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1367" s="1">
         <v>45383</v>
       </c>
@@ -31487,6 +32230,5346 @@
         <v>7</v>
       </c>
       <c r="F1367" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1368" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B1368" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1368" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D1368" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1368" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1368" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1369" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B1369" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1369" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D1369" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1369" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1369" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1370" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B1370" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1370" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D1370" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1370" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1370" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1371" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B1371" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1371" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D1371" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1371" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1371" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1372" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B1372" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1372" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D1372" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1372" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1372" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1373" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B1373" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1373" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D1373" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1373" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1373" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1374" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B1374" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1374" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D1374" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1374" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1374" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1375" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B1375" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1375" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D1375" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1375" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1375" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1376" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B1376" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1376" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D1376" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1376" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1376" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1377" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B1377" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1377" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D1377" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1377" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1377" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1378" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B1378" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1378" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D1378" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1378" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1378" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1379" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B1379" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1379" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D1379" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1379" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1379" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1380" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B1380" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1380" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D1380" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1380" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1380" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1381" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B1381" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1381" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D1381" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1381" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1381" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1382" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B1382" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1382" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D1382" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1382" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1382" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1383" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B1383" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1383" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D1383" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1383" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1383" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1384" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B1384" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1384" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D1384" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1384" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1384" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1385" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B1385" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1385" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1385" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1385" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1385" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1386" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B1386" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1386" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1386" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1386" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1386" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1387" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B1387" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1387" t="s">
+        <v>228</v>
+      </c>
+      <c r="D1387" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1387" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1387" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1388" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B1388" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1388" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1388" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1388" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1388" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1389" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B1389" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1389" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D1389" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1389" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1389" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1390" s="1">
+        <v>45444</v>
+      </c>
+      <c r="B1390" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1390" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D1390" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1390" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1390" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1391" s="1">
+        <v>45444</v>
+      </c>
+      <c r="B1391" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1391" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D1391" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1391" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1391" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1392" s="1">
+        <v>45444</v>
+      </c>
+      <c r="B1392" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1392" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D1392" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1392" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1392" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1393" s="1">
+        <v>45444</v>
+      </c>
+      <c r="B1393" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1393" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D1393" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1393" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1393" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1394" s="1">
+        <v>45444</v>
+      </c>
+      <c r="B1394" t="s">
+        <v>305</v>
+      </c>
+      <c r="C1394" t="s">
+        <v>569</v>
+      </c>
+      <c r="D1394" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1394" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1394" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1395" s="1">
+        <v>45444</v>
+      </c>
+      <c r="B1395" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1395" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D1395" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1395" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1395" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1396" s="1">
+        <v>45444</v>
+      </c>
+      <c r="B1396" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1396" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1396" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1396" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1396" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1397" s="1">
+        <v>45444</v>
+      </c>
+      <c r="B1397" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1397" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1397" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1397" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1397" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1398" s="1">
+        <v>45444</v>
+      </c>
+      <c r="B1398" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1398" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1398" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1398" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1398" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1399" s="1">
+        <v>45444</v>
+      </c>
+      <c r="B1399" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1399" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D1399" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1399" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1399" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1400" s="1">
+        <v>45444</v>
+      </c>
+      <c r="B1400" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1400" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D1400" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1400" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1400" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1401" s="1">
+        <v>45444</v>
+      </c>
+      <c r="B1401" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1401" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D1401" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1401" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1401" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1402" s="1">
+        <v>45444</v>
+      </c>
+      <c r="B1402" t="s">
+        <v>492</v>
+      </c>
+      <c r="C1402" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D1402" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1402" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1402" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1403" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B1403" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1403" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D1403" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1403" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1403" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1404" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B1404" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1404" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D1404" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1404" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1404" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1405" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B1405" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1405" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D1405" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1405" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1405" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1406" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B1406" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1406" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D1406" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1406" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1406" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1407" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B1407" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1407" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D1407" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1407" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1407" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1408" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B1408" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1408" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D1408" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1408" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1408" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1409" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B1409" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1409" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D1409" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1409" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1409" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1410" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B1410" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1410" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D1410" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1410" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1410" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1411" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B1411" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1411" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1411" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1411" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1411" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1412" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B1412" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1412" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D1412" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1412" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1412" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1413" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B1413" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1413" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1413" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1413" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1413" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1414" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B1414" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1414" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1414" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1414" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1414" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1415" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B1415" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1415" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D1415" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1415" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1415" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1416" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B1416" t="s">
+        <v>492</v>
+      </c>
+      <c r="C1416" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D1416" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1416" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1416" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1417" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B1417" t="s">
+        <v>492</v>
+      </c>
+      <c r="C1417" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D1417" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1417" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1417" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1418" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B1418" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C1418" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D1418" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1418" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1418" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1419" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B1419" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C1419" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D1419" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1419" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1419" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1420" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B1420" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1420" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D1420" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1420" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1420" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1421" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B1421" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1421" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D1421" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1421" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1421" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1422" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B1422" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1422" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D1422" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1422" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1422" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1423" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B1423" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1423" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D1423" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1423" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1423" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1424" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B1424" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1424" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D1424" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1424" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F1424" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1425" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B1425" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1425" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D1425" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1425" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1425" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1426" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B1426" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1426" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D1426" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1426" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1426" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1427" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B1427" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C1427" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D1427" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1427" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1427" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1428" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B1428" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1428" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D1428" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1428" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1428" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1429" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B1429" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1429" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D1429" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1429" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1429" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1430" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B1430" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1430" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D1430" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1430" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1430" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1431" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B1431" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1431" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D1431" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1431" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1431" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1432" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B1432" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1432" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D1432" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1432" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1432" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1433" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B1433" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1433" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D1433" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1433" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1433" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1434" s="1">
+        <v>45536</v>
+      </c>
+      <c r="B1434" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C1434" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D1434" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1434" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1434" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1435" s="1">
+        <v>45536</v>
+      </c>
+      <c r="B1435" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1435" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D1435" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1435" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1435" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1436" s="1">
+        <v>45536</v>
+      </c>
+      <c r="B1436" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1436" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D1436" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1436" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1436" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1437" s="1">
+        <v>45536</v>
+      </c>
+      <c r="B1437" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1437" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D1437" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1437" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1437" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1438" s="1">
+        <v>45536</v>
+      </c>
+      <c r="B1438" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1438" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D1438" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1438" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1438" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1439" s="1">
+        <v>45536</v>
+      </c>
+      <c r="B1439" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1439" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D1439" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1439" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1439" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1440" s="1">
+        <v>45536</v>
+      </c>
+      <c r="B1440" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1440" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D1440" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1440" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1440" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1441" s="1">
+        <v>45536</v>
+      </c>
+      <c r="B1441" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1441" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D1441" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1441" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1441" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1442" s="1">
+        <v>45536</v>
+      </c>
+      <c r="B1442" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1442" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D1442" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1442" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1442" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1443" s="1">
+        <v>45536</v>
+      </c>
+      <c r="B1443" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1443" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D1443" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1443" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1443" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1444" s="1">
+        <v>45536</v>
+      </c>
+      <c r="B1444" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C1444" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D1444" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1444" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1444" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1445" s="1">
+        <v>45536</v>
+      </c>
+      <c r="B1445" t="s">
+        <v>305</v>
+      </c>
+      <c r="C1445" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D1445" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1445" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1445" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1446" s="1">
+        <v>45536</v>
+      </c>
+      <c r="B1446" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1446" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D1446" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1446" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1446" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1447" s="1">
+        <v>45536</v>
+      </c>
+      <c r="B1447" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1447" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1447" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1447" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1447" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1448" s="1">
+        <v>45536</v>
+      </c>
+      <c r="B1448" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1448" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D1448" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1448" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1448" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1449" s="1">
+        <v>45536</v>
+      </c>
+      <c r="B1449" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1449" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D1449" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1449" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1449" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1450" s="1">
+        <v>45536</v>
+      </c>
+      <c r="B1450" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1450" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D1450" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1450" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1450" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1451" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B1451" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C1451" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D1451" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1451" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1451" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1452" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B1452" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C1452" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D1452" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1452" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1452" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1453" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B1453" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1453" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D1453" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1453" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1453" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1454" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B1454" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1454" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D1454" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1454" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1454" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1455" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B1455" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1455" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D1455" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1455" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1455" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1456" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B1456" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1456" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D1456" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1456" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1456" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1457" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B1457" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1457" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D1457" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1457" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1457" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1458" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B1458" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1458" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D1458" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1458" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1458" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1459" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B1459" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1459" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D1459" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1459" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1459" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1460" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B1460" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1460" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D1460" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1460" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1460" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1461" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B1461" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C1461" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D1461" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1461" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1461" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1462" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B1462" t="s">
+        <v>305</v>
+      </c>
+      <c r="C1462" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D1462" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1462" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1462" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1463" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B1463" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1463" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D1463" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1463" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1463" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1464" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B1464" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1464" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1464" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1464" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1464" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1465" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B1465" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1465" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D1465" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1465" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1465" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1466" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B1466" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1466" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1466" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1466" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1466" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1467" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B1467" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1467" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D1467" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1467" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1467" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1468" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B1468" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1468" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D1468" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1468" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1468" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1469" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B1469" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1469" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D1469" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1469" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1469" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1470" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B1470" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1470" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D1470" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1470" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1470" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1471" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B1471" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C1471" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D1471" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1471" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1471" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1472" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B1472" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C1472" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D1472" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1472" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1472" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1473" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B1473" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1473" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D1473" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1473" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1473" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1474" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B1474" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1474" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D1474" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1474" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1474" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1475" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B1475" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1475" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D1475" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1475" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1475" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1476" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B1476" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1476" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D1476" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1476" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1476" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1477" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B1477" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1477" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D1477" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1477" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1477" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1478" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B1478" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1478" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D1478" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1478" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1478" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1479" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B1479" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1479" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D1479" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1479" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1479" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1480" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B1480" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1480" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D1480" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1480" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1480" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1481" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B1481" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1481" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D1481" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1481" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1481" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1482" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B1482" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C1482" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D1482" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1482" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1482" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1483" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B1483" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C1483" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D1483" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1483" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1483" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1484" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B1484" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C1484" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D1484" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1484" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1484" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1485" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B1485" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1485" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D1485" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1485" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1485" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1486" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B1486" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1486" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D1486" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1486" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1486" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1487" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B1487" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1487" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D1487" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1487" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1487" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1488" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B1488" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1488" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D1488" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1488" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1488" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1489" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B1489" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1489" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D1489" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1489" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1489" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1490" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B1490" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1490" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D1490" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1490" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1490" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1491" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B1491" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1491" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D1491" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1491" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1491" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1492" s="1">
+        <v>45627</v>
+      </c>
+      <c r="B1492" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1492" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D1492" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1492" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1492" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1493" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B1493" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C1493" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D1493" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1493" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1493" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1494" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B1494" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1494" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D1494" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1494" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1494" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1495" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B1495" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1495" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D1495" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1495" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1495" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1496" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B1496" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1496" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D1496" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1496" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1496" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1497" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B1497" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1497" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D1497" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1497" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1497" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1498" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B1498" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1498" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D1498" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1498" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1498" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1499" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B1499" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1499" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D1499" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1499" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1499" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1500" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B1500" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1500" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D1500" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1500" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1500" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1501" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B1501" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1501" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D1501" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1501" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1501" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1502" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B1502" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1502" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D1502" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1502" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1502" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1503" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B1503" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1503" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1503" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1503" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1503" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1504" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B1504" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C1504" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D1504" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1504" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1504" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1505" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B1505" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1505" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D1505" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1505" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1505" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1506" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B1506" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1506" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D1506" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1506" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1506" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1507" s="1">
+        <v>45689</v>
+      </c>
+      <c r="B1507" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C1507" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1507" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1507" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1507" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1508" s="1">
+        <v>45689</v>
+      </c>
+      <c r="B1508" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C1508" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D1508" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1508" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1508" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1509" s="1">
+        <v>45689</v>
+      </c>
+      <c r="B1509" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C1509" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D1509" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1509" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1509" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1510" s="1">
+        <v>45689</v>
+      </c>
+      <c r="B1510" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C1510" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D1510" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1510" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1510" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1511" s="1">
+        <v>45689</v>
+      </c>
+      <c r="B1511" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C1511" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D1511" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1511" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1511" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1512" s="1">
+        <v>45689</v>
+      </c>
+      <c r="B1512" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1512" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D1512" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1512" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1512" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1513" s="1">
+        <v>45689</v>
+      </c>
+      <c r="B1513" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1513" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D1513" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1513" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1513" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1514" s="1">
+        <v>45689</v>
+      </c>
+      <c r="B1514" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1514" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D1514" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1514" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1514" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1515" s="1">
+        <v>45689</v>
+      </c>
+      <c r="B1515" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1515" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D1515" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1515" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1515" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1516" s="1">
+        <v>45689</v>
+      </c>
+      <c r="B1516" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1516" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D1516" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1516" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1516" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1517" s="1">
+        <v>45717</v>
+      </c>
+      <c r="B1517" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C1517" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D1517" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1517" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1517" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1518" s="1">
+        <v>45717</v>
+      </c>
+      <c r="B1518" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C1518" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D1518" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1518" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1518" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1519" s="1">
+        <v>45717</v>
+      </c>
+      <c r="B1519" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C1519" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D1519" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1519" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1519" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1520" s="1">
+        <v>45717</v>
+      </c>
+      <c r="B1520" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C1520" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D1520" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1520" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1520" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1521" s="1">
+        <v>45717</v>
+      </c>
+      <c r="B1521" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C1521" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D1521" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1521" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1521" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1522" s="1">
+        <v>45717</v>
+      </c>
+      <c r="B1522" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C1522" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D1522" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1522" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1522" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1523" s="1">
+        <v>45717</v>
+      </c>
+      <c r="B1523" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1523" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D1523" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1523" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1523" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1524" s="1">
+        <v>45717</v>
+      </c>
+      <c r="B1524" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1524" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D1524" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1524" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1524" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1525" s="1">
+        <v>45717</v>
+      </c>
+      <c r="B1525" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1525" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D1525" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1525" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1525" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1526" s="1">
+        <v>45717</v>
+      </c>
+      <c r="B1526" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1526" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D1526" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1526" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1526" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1527" s="1">
+        <v>45717</v>
+      </c>
+      <c r="B1527" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1527" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D1527" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1527" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1527" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1528" s="1">
+        <v>45717</v>
+      </c>
+      <c r="B1528" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1528" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D1528" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1528" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1528" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1529" s="1">
+        <v>45717</v>
+      </c>
+      <c r="B1529" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1529" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D1529" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1529" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1529" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1530" s="1">
+        <v>45717</v>
+      </c>
+      <c r="B1530" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1530" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D1530" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1530" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1530" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1531" s="1">
+        <v>45717</v>
+      </c>
+      <c r="B1531" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1531" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D1531" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1531" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1531" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1532" s="1">
+        <v>45717</v>
+      </c>
+      <c r="B1532" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1532" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D1532" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1532" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1532" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1533" s="1">
+        <v>45717</v>
+      </c>
+      <c r="B1533" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1533" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D1533" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1533" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1533" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1534" s="1">
+        <v>45717</v>
+      </c>
+      <c r="B1534" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1534" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D1534" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1534" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1534" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1535" s="1">
+        <v>45717</v>
+      </c>
+      <c r="B1535" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1535" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D1535" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1535" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1535" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1536" s="1">
+        <v>45717</v>
+      </c>
+      <c r="B1536" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1536" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D1536" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1536" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1536" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1537" s="1">
+        <v>45717</v>
+      </c>
+      <c r="B1537" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1537" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D1537" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1537" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1537" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1538" s="1">
+        <v>45717</v>
+      </c>
+      <c r="B1538" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1538" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D1538" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1538" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1538" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1539" s="1">
+        <v>45717</v>
+      </c>
+      <c r="B1539" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1539" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D1539" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1539" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1539" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1540" s="1">
+        <v>45717</v>
+      </c>
+      <c r="B1540" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1540" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D1540" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1540" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1540" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1541" s="1">
+        <v>45717</v>
+      </c>
+      <c r="B1541" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C1541" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D1541" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1541" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1541" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1542" s="1">
+        <v>45717</v>
+      </c>
+      <c r="B1542" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1542" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D1542" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1542" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1542" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1543" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B1543" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C1543" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D1543" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1543" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1543" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1544" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B1544" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C1544" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D1544" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1544" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1544" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1545" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B1545" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1545" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D1545" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1545" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1545" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1546" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B1546" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1546" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D1546" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1546" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1546" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1547" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B1547" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1547" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D1547" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1547" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1547" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1548" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B1548" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1548" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D1548" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1548" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1548" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1549" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B1549" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1549" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D1549" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1549" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1549" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1550" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B1550" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C1550" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D1550" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1550" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1550" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1551" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B1551" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C1551" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D1551" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1551" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1551" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1552" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B1552" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C1552" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D1552" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1552" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1552" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1553" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B1553" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1553" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D1553" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1553" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1553" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1554" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B1554" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C1554" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D1554" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1554" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1554" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1555" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B1555" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C1555" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D1555" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1555" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1555" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1556" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B1556" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C1556" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D1556" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1556" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1556" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1557" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B1557" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C1557" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D1557" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1557" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1557" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1558" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B1558" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C1558" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D1558" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1558" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1558" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1559" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B1559" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C1559" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D1559" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1559" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1559" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1560" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B1560" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C1560" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D1560" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1560" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1560" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1561" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B1561" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C1561" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D1561" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1561" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1561" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1562" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B1562" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C1562" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D1562" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1562" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1562" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1563" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B1563" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C1563" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D1563" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1563" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1563" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1564" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B1564" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1564" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D1564" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1564" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1564" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1565" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B1565" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1565" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D1565" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1565" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1565" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1566" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B1566" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1566" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D1566" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1566" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1566" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1567" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B1567" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1567" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D1567" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1567" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1567" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1568" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B1568" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1568" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D1568" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1568" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1568" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1569" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B1569" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1569" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D1569" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1569" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1569" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1570" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B1570" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1570" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D1570" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1570" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1570" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1571" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B1571" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1571" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D1571" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1571" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1571" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1572" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B1572" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1572" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D1572" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1572" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1572" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1573" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B1573" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1573" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D1573" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1573" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1573" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1574" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B1574" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1574" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D1574" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1574" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1574" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1575" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B1575" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1575" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D1575" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1575" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1575" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1576" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B1576" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1576" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D1576" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1576" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1576" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1577" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B1577" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1577" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D1577" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1577" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1577" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1578" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B1578" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C1578" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D1578" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1578" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1578" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1579" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B1579" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C1579" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D1579" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1579" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1579" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1580" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B1580" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C1580" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D1580" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1580" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1580" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1581" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B1581" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C1581" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D1581" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1581" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1581" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1582" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B1582" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1582" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D1582" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1582" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1582" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1583" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B1583" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1583" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1583" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1583" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1583" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1584" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B1584" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1584" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D1584" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1584" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1584" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1585" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B1585" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1585" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D1585" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1585" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1585" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1586" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B1586" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1586" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1586" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1586" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1586" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1587" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B1587" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1587" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1587" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1587" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1587" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1588" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B1588" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1588" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D1588" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1588" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1588" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1589" s="1">
+        <v>45809</v>
+      </c>
+      <c r="B1589" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C1589" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D1589" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1589" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1589" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1590" s="1">
+        <v>45809</v>
+      </c>
+      <c r="B1590" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1590" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D1590" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1590" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1590" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1591" s="1">
+        <v>45809</v>
+      </c>
+      <c r="B1591" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1591" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D1591" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1591" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1591" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1592" s="1">
+        <v>45809</v>
+      </c>
+      <c r="B1592" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1592" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D1592" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1592" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1592" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1593" s="1">
+        <v>45809</v>
+      </c>
+      <c r="B1593" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1593" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D1593" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1593" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1593" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1594" s="1">
+        <v>45809</v>
+      </c>
+      <c r="B1594" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1594" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D1594" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1594" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1594" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1595" s="1">
+        <v>45809</v>
+      </c>
+      <c r="B1595" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1595" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D1595" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1595" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1595" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1596" s="1">
+        <v>45809</v>
+      </c>
+      <c r="B1596" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1596" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D1596" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1596" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1596" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1597" s="1">
+        <v>45809</v>
+      </c>
+      <c r="B1597" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1597" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D1597" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1597" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1597" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1598" s="1">
+        <v>45809</v>
+      </c>
+      <c r="B1598" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1598" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D1598" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1598" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1598" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1599" s="1">
+        <v>45809</v>
+      </c>
+      <c r="B1599" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C1599" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D1599" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1599" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1599" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1600" s="1">
+        <v>45809</v>
+      </c>
+      <c r="B1600" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C1600" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D1600" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1600" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1600" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1601" s="1">
+        <v>45809</v>
+      </c>
+      <c r="B1601" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C1601" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D1601" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1601" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1601" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1602" s="1">
+        <v>45809</v>
+      </c>
+      <c r="B1602" t="s">
+        <v>305</v>
+      </c>
+      <c r="C1602" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D1602" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1602" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1602" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1603" s="1">
+        <v>45809</v>
+      </c>
+      <c r="B1603" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C1603" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D1603" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1603" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1603" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1604" s="1">
+        <v>45809</v>
+      </c>
+      <c r="B1604" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1604" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1604" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1604" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1604" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1605" s="1">
+        <v>45809</v>
+      </c>
+      <c r="B1605" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1605" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D1605" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1605" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1605" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1606" s="1">
+        <v>45809</v>
+      </c>
+      <c r="B1606" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1606" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D1606" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1606" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1606" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1607" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B1607" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C1607" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D1607" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1607" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1607" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1608" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B1608" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C1608" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D1608" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1608" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1608" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1609" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B1609" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C1609" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D1609" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1609" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1609" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1610" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B1610" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C1610" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D1610" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1610" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1610" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1611" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B1611" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C1611" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D1611" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1611" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1611" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1612" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B1612" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C1612" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D1612" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1612" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1612" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1613" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B1613" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C1613" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D1613" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1613" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1613" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1614" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B1614" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C1614" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D1614" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1614" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1614" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1615" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B1615" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C1615" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D1615" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1615" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1615" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1616" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B1616" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1616" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D1616" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1616" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1616" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1617" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B1617" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1617" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D1617" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1617" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1617" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1618" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B1618" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1618" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D1618" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1618" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1618" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1619" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B1619" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1619" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D1619" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1619" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1619" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1620" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B1620" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1620" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D1620" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1620" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1620" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1621" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B1621" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1621" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D1621" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1621" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1621" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1622" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B1622" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1622" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D1622" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1622" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1622" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1623" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B1623" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C1623" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D1623" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1623" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1623" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1624" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B1624" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C1624" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D1624" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1624" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1624" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1625" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B1625" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C1625" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D1625" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1625" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1625" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1626" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B1626" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C1626" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D1626" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1626" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1626" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1627" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B1627" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C1627" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D1627" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1627" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1627" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1628" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B1628" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C1628" t="s">
+        <v>1482</v>
+      </c>
+      <c r="D1628" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1628" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1628" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1629" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B1629" t="s">
+        <v>305</v>
+      </c>
+      <c r="C1629" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D1629" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1629" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1629" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1630" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B1630" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C1630" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D1630" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1630" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1630" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1631" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B1631" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1631" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D1631" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1631" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1631" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1632" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B1632" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1632" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D1632" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1632" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1632" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1633" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B1633" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1633" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D1633" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1633" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1633" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1634" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B1634" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1634" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D1634" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1634" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1634" t="s">
         <v>7</v>
       </c>
     </row>
@@ -31494,10 +37577,42 @@
   <autoFilter ref="A1:E1367" xr:uid="{1AAEBBDD-7330-48E0-8A2B-BBEFD3B9C56A}">
     <filterColumn colId="0">
       <filters>
-        <dateGroupItem year="2019" dateTimeGrouping="year"/>
+        <dateGroupItem year="2024" dateTimeGrouping="year"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC6EFDB0-2A0F-493E-9455-11CD4948E7B1}">
+  <dimension ref="D6:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="6" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D6">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D9">
+        <f>_xlfn.BINOM.INV(D6,0.5,D8/2)</f>
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>